--- a/Data_Analysis/CognitiveScience_LangMusic_results_compare-LME-rmANOVA.xlsx
+++ b/Data_Analysis/CognitiveScience_LangMusic_results_compare-LME-rmANOVA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micaceous\Desktop\Research\LangMusic\Manuscript\CognitiveScience_resubmission_04-30-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micaceous\Desktop\Research\LangMusic\Manuscript\CognitiveScience_resubmission_04-30-24\Publication_filesharing_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC7041-0FAE-4365-9745-BD3710209309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D7C5B-49C1-458B-A45F-7E86DEA829C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{B2709C2D-95C3-49AF-AF87-D549C208E800}"/>
+    <workbookView xWindow="8808" yWindow="336" windowWidth="13548" windowHeight="11976" xr2:uid="{B2709C2D-95C3-49AF-AF87-D549C208E800}"/>
   </bookViews>
   <sheets>
     <sheet name="model 1" sheetId="2" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,7 +662,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,10 +978,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9490D5-548B-4120-AE99-912655D015A2}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1206,7 @@
         <v>6892</v>
       </c>
       <c r="H9" s="5">
-        <v>4.18</v>
+        <v>-4.18</v>
       </c>
       <c r="I9" s="2">
         <v>8.0000000000000004E-4</v>
@@ -1245,7 +1244,7 @@
         <v>6892</v>
       </c>
       <c r="H10" s="5">
-        <v>3.93</v>
+        <v>-3.93</v>
       </c>
       <c r="I10" s="2">
         <v>2.0999999999999999E-3</v>
@@ -1283,7 +1282,7 @@
         <v>6892</v>
       </c>
       <c r="H11" s="5">
-        <v>15.27</v>
+        <v>-15.27</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -1321,7 +1320,7 @@
         <v>6892</v>
       </c>
       <c r="H12" s="5">
-        <v>1.99</v>
+        <v>-1.99</v>
       </c>
       <c r="I12" s="2">
         <v>0.48699999999999999</v>
@@ -2379,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C594B243-C093-48B0-901F-9667A203B644}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
@@ -2960,7 +2959,7 @@
     <col min="1" max="1" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
@@ -3700,10 +3699,10 @@
       <c r="G13" s="5">
         <v>3435</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="6">
         <v>2.62</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="6">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="J13" s="5">
@@ -3715,10 +3714,10 @@
       <c r="L13" s="5">
         <v>3478</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="6">
         <v>2.46</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="6">
         <v>1.38E-2</v>
       </c>
       <c r="O13" s="2" t="s">
